--- a/lcd worksheet.xlsx
+++ b/lcd worksheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec11bca0e4bee75f/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec11bca0e4bee75f/Desktop/AVR Programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2663C552-0465-4E0A-ABC6-10D36FE00E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{2663C552-0465-4E0A-ABC6-10D36FE00E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6EBB3D6-9976-43BA-9C6B-93DFA4536BD4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{038FC538-E720-4623-9593-C919F0378887}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +130,13 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,10 +162,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC4D5C7-922A-4338-9385-302FE1057A08}">
   <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J32" zoomScale="133" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,16 +496,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="3">
         <v>8</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="3">
         <v>4</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="3">
         <v>1</v>
       </c>
       <c r="G1" t="s">
@@ -522,19 +530,20 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -596,19 +605,20 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
         <v>4</v>
       </c>
       <c r="K7">
@@ -672,6 +682,18 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="G9">
         <v>6</v>
       </c>
@@ -683,6 +705,18 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
       <c r="G10">
         <v>7</v>
       </c>
@@ -703,23 +737,36 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="G12">
         <v>9</v>
       </c>
@@ -728,6 +775,18 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
       <c r="G13">
         <v>10</v>
       </c>
@@ -745,11 +804,35 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
       <c r="G14">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
       <c r="G15">
         <v>12</v>
       </c>
@@ -770,11 +853,35 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
       <c r="G16">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
       <c r="G17">
         <v>14</v>
       </c>
